--- a/module6/detail-design/[C0222G2]_DetailDesign_PhuongTD.xlsx
+++ b/module6/detail-design/[C0222G2]_DetailDesign_PhuongTD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Use_Case" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>6.1.1. Đăng nhập</t>
   </si>
   <si>
     <t>6.1.1. Quên mật khẩu (gửi mail phục hồi)</t>
+  </si>
+  <si>
+    <t>BEGIN PROGRAM</t>
+  </si>
+  <si>
+    <t>AppUserRepository</t>
+  </si>
+  <si>
+    <t>AppUser findAppUserByUserName(userName)</t>
+  </si>
+  <si>
+    <t>Get database connection</t>
+  </si>
+  <si>
+    <t>Select SQL:</t>
+  </si>
+  <si>
+    <t>SELECT username, password</t>
+  </si>
+  <si>
+    <t>FROM APP_User</t>
+  </si>
+  <si>
+    <t>WHERE username = ?</t>
+  </si>
+  <si>
+    <t>Execute SQL</t>
+  </si>
+  <si>
+    <t>Close database connection</t>
+  </si>
+  <si>
+    <t>UserRoleRepository</t>
+  </si>
+  <si>
+    <t>List&lt;UserRole&gt; findAllByAppUser(appUser)</t>
+  </si>
+  <si>
+    <t>SELECT APP_ROLE.ROLE_ID, APP_ROLE.ROLE_NAME</t>
+  </si>
+  <si>
+    <t>FROM USER_ROLE</t>
+  </si>
+  <si>
+    <t>JOIN APP_ROLE on APP_ROLE.ROLE_ID = USER_ROLE.ROLE_ID</t>
+  </si>
+  <si>
+    <t>where USER_ID = ?;</t>
+  </si>
+  <si>
+    <t>JwtUserDetailsService implement UserDetailsService</t>
+  </si>
+  <si>
+    <t>Inject AppUserRepository</t>
+  </si>
+  <si>
+    <t>Inject UserRoleRepository</t>
+  </si>
+  <si>
+    <t>UserDetails loadUserByUsername(String username)</t>
+  </si>
+  <si>
+    <t>Call method appUserRepository.findAppUserByUserName(username) return AppUser</t>
+  </si>
+  <si>
+    <t>IF appUser is null then throw new UserNotFoundException() end if</t>
+  </si>
+  <si>
+    <t>Call method userRoleRepository.findAllByAppUser(appUser) return List&lt;UserRole)</t>
+  </si>
+  <si>
+    <t>Create empty grantList with datatype List&lt;GrantedAuthority&gt;</t>
+  </si>
+  <si>
+    <t>IF userRoles is not null then</t>
+  </si>
+  <si>
+    <t>Loop userRoles create instance GrantedAuthoity with param userRole.getAppRole().getRoleName()</t>
+  </si>
+  <si>
+    <t>Add authority to grantList end loop end if</t>
+  </si>
+  <si>
+    <t>Return User with param appUser.getUserName(), appUser.getPassword(), grantList</t>
+  </si>
+  <si>
+    <t>JwtAuthenticationController</t>
+  </si>
+  <si>
+    <t>ResponseEntity&lt;?&gt; createAuthenticationToken(JwtRequest authenticationRequest)</t>
+  </si>
+  <si>
+    <t>Inject AuthenticationManager</t>
+  </si>
+  <si>
+    <t>Inject JwtTokenUtil</t>
+  </si>
+  <si>
+    <t>Inject JwtUserDetailsService</t>
+  </si>
+  <si>
+    <t>Get username, password from request body</t>
+  </si>
+  <si>
+    <t>Get userDetail from userDetailsService(authenticationRequest.getUsername())</t>
+  </si>
+  <si>
+    <t>Get grantList from userDetails.getAuthorities()</t>
+  </si>
+  <si>
+    <t>Return ResponseEntity status ok with param instance JwtReponse(token, grantList)</t>
+  </si>
+  <si>
+    <t>END PROGRAM</t>
+  </si>
+  <si>
+    <t>void findAppUserByUserName()</t>
+  </si>
+  <si>
+    <t>SimpleEmailController</t>
+  </si>
+  <si>
+    <t>Inject AppUserService</t>
+  </si>
+  <si>
+    <t>Get username from param method</t>
+  </si>
+  <si>
+    <t>Call method loadUserByUsername(username)</t>
+  </si>
+  <si>
+    <t>IF user is null return NOT_FOUND status is restful</t>
+  </si>
+  <si>
+    <t>else redirect to forgot password page with resonse entity id</t>
+  </si>
+  <si>
+    <t>ChangePasswordController</t>
+  </si>
+  <si>
+    <t>Get id, password from resoponse body</t>
+  </si>
+  <si>
+    <t>Call method sendChangedPassword(id, password)</t>
+  </si>
+  <si>
+    <t>void sendChangedPassWord(id, password)</t>
+  </si>
+  <si>
+    <t>Update SQL:</t>
+  </si>
+  <si>
+    <t>UPDATE APP_USER</t>
+  </si>
+  <si>
+    <t>SET PASSWORD = ? WHERE (USER_ID = ?)</t>
+  </si>
+  <si>
+    <t>IF userDetail must be null then return ResponseEntity status not found</t>
+  </si>
+  <si>
+    <t>Create token with method generatetoke() of jwtTokenUtil instance</t>
+  </si>
+  <si>
+    <t>IF password is same confirm password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -48,13 +213,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,14 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,18 +391,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>475185</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:colOff>245476</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>36357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -259,8 +415,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773206" y="952500"/>
-          <a:ext cx="17485714" cy="13942857"/>
+          <a:off x="779318" y="571500"/>
+          <a:ext cx="17390476" cy="13942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -276,20 +432,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>465700</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293793</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>113511</xdr:rowOff>
+      <xdr:rowOff>132562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -302,8 +458,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="276225"/>
-          <a:ext cx="8200000" cy="6314286"/>
+          <a:off x="781050" y="304800"/>
+          <a:ext cx="11857143" cy="6304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -320,14 +476,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>484750</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>18262</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>665413</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>17428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -341,7 +497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="771525" y="7048500"/>
-          <a:ext cx="8200000" cy="6304762"/>
+          <a:ext cx="10695238" cy="12971428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,13 +817,13 @@
     <col min="1" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -686,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,13 +851,13 @@
     <col min="1" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -720,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,13 +885,13 @@
     <col min="1" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -752,10 +908,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,117 +919,1404 @@
     <col min="1" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+    </row>
+    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+    </row>
+    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+    </row>
+    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+    </row>
+    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+    </row>
+    <row r="64" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+    </row>
+    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
